--- a/非受控文档/绩效评价/第九周绩效评价.xlsx
+++ b/非受控文档/绩效评价/第九周绩效评价.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuqi/Desktop/PRD2018/绩效评价/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmy/Documents/GitHub/SE-Education-Assistant-System/非受控文档/绩效评价/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480"/>
   </bookViews>
   <sheets>
     <sheet name="20180426" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="52">
   <si>
     <t>绩效评价</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,12 +264,483 @@
     <t>第9周任务清单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>截止时间：</t>
+    <rPh sb="0" eb="1">
+      <t>jie zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有特殊标注的任务的截止时间统一为每周日中午12:00</t>
+    <rPh sb="0" eb="1">
+      <t>mei y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>te shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao zhu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ren wu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>d</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jie zhi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tong yi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>mei zhou</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zhong wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绩效评价规则：</t>
+    <rPh sb="0" eb="1">
+      <t>ji xiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ping jia</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gui ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.每项任务有四个指标，一个指标未达标，视情节严重与否扣除0.02-0.05分</t>
+    <rPh sb="2" eb="3">
+      <t>mei xinag ren</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ren wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>si ge</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhi biao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yi ge</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhi biao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wei da biao</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shi li</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yu fou</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>kou chu</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.若某组员在规定时间内几乎未完成任何指定任务，或在第一条规则内扣分超过0.4分则改组员本周绩效为0分</t>
+    <rPh sb="2" eb="3">
+      <t>ruo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zu yuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gui ding shi jian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>nei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ji hu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wan cheng</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ren he</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zhi ding</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ren wu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>huo z</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>di yi</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>tiao</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>gui ze</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>nei</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>kou fen</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>chao guo</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>gai cheng yuan</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>zu yuan</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ben zhou</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ji xiao</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.小组未说明原因或未请假，会议迟到，本周绩效扣除0.05分，并罚款与迟到分钟对等的人名币（例如迟到5分钟罚款5元，迟到60分钟罚款60元）作为团建基金</t>
+    <rPh sb="2" eb="3">
+      <t>xiao zu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shuo ming</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yuan yin</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>huo zhe</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qing jia</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>hui yi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ben zhou</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ji xiao</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>kou chu</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>bing fa kuan</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>fen zhong</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>dui deng</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>d</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ren ming bi</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>li ru</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>fen zhong</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>fa kuan</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>fen z</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>fa kuan</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>zuo wei</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>tuan jian ji jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.小组未说明原因或未请假，会议未到，本周绩效扣除0.1分，并罚款与会议时间分钟数对等的人名币。作为团建基金。</t>
+    <rPh sb="16" eb="17">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>hui yi</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>fen zhong</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.小组微信群（组名为G12💅）内，组长发布@所有人 消息时，无特殊情况超过15分钟未回复，一次扣除0.02分，可无限叠加。</t>
+    <rPh sb="2" eb="3">
+      <t>xiao zu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei xin qun</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zu ming</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>nei</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zu zhang</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>fa bu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>suo you ren</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>xiao xi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>te shu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>qing kuang</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>chao guo</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>fen zhong</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>hui fu</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>yi ci</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>kou chu</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ke wu xian die jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.小组成员在本周工作成果优秀（具体表现为课堂上被杨老师表扬，提交任务近乎完美达到所有指标的情况），视情况本周绩效加0.02-0.05的分。</t>
+    <rPh sb="2" eb="3">
+      <t>xiao zu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cheng yuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ben zhou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gong zuo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>cheng guo</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>you xiu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ju ti</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>biao xian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ke tang</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yang</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>lao shi</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>biao yang</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ti jiao</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ren wu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>jin hu wan mei</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>da dao</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>zhi biao</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>d</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>shi li</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>qing kuang</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ben zhou ji xiao</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>jia fen</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>d</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>fen shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +824,20 @@
     </font>
     <font>
       <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -513,7 +998,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -550,6 +1035,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -559,17 +1056,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -903,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="161" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -960,8 +1454,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -969,7 +1463,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -993,7 +1487,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
@@ -1012,7 +1506,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
@@ -1031,7 +1525,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
@@ -1050,7 +1544,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
@@ -1069,7 +1563,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1094,7 +1588,7 @@
       <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
@@ -1115,7 +1609,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
@@ -1135,7 +1629,7 @@
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="8" t="s">
         <v>26</v>
       </c>
@@ -1153,7 +1647,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1180,7 +1674,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="7" t="s">
         <v>28</v>
       </c>
@@ -1199,7 +1693,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="7" t="s">
         <v>29</v>
       </c>
@@ -1218,7 +1712,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
@@ -1238,7 +1732,7 @@
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -1264,7 +1758,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="9" t="s">
         <v>32</v>
       </c>
@@ -1282,7 +1776,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="9" t="s">
         <v>33</v>
       </c>
@@ -1300,8 +1794,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1318,7 +1812,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -1344,7 +1838,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="7" t="s">
         <v>35</v>
       </c>
@@ -1363,7 +1857,7 @@
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="7" t="s">
         <v>36</v>
       </c>
@@ -1382,7 +1876,7 @@
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="8" t="s">
         <v>37</v>
       </c>
@@ -1405,91 +1899,119 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="20"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>

--- a/非受控文档/绩效评价/第九周绩效评价.xlsx
+++ b/非受控文档/绩效评价/第九周绩效评价.xlsx
@@ -459,125 +459,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.小组未说明原因或未请假，会议迟到，本周绩效扣除0.05分，并罚款与迟到分钟对等的人名币（例如迟到5分钟罚款5元，迟到60分钟罚款60元）作为团建基金</t>
-    <rPh sb="2" eb="3">
-      <t>xiao zu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shuo ming</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yuan yin</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>huo zhe</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>qing jia</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>hui yi</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>chi dao</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ben zhou</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ji xiao</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>kou chu</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>fen</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>bing fa kuan</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>chi dao</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>fen zhong</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>dui deng</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>d</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ren ming bi</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>li ru</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>chi dao</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>fen zhong</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>fa kuan</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>yuan</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>chi dao</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>fen z</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>fa kuan</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>yuan</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>zuo wei</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>tuan jian ji jin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.小组未说明原因或未请假，会议未到，本周绩效扣除0.1分，并罚款与会议时间分钟数对等的人名币。作为团建基金。</t>
-    <rPh sb="16" eb="17">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>dao</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>hui yi</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>shi jian</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>fen zhong</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5.小组微信群（组名为G12💅）内，组长发布@所有人 消息时，无特殊情况超过15分钟未回复，一次扣除0.02分，可无限叠加。</t>
     <rPh sb="2" eb="3">
       <t>xiao zu</t>
@@ -732,6 +613,128 @@
     </rPh>
     <rPh sb="68" eb="69">
       <t>fen shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.小组未说明原因或未请假，会议迟到，本周绩效扣除0.05分，并罚款与迟到分钟对等的人民币（例如迟到5分钟罚款5元，迟到60分钟罚款60元）作为团建基金</t>
+    <rPh sb="2" eb="3">
+      <t>xiao zu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shuo ming</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yuan yin</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>huo zhe</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qing jia</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>hui yi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ben zhou</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ji xiao</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>kou chu</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>bing fa kuan</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>fen zhong</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>dui deng</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>d</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ren min</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>li ru</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>fen zhong</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>fa kuan</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>fen z</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>fa kuan</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>zuo wei</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>tuan jian ji jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.小组未说明原因或未请假，会议未到，本周绩效扣除0.1分，并罚款与会议时间分钟数对等的人民币。作为团建基金。</t>
+    <rPh sb="16" eb="17">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>hui yi</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>fen zhong</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>shu</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ren min</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1044,6 +1047,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1055,15 +1067,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1398,7 +1401,7 @@
   <dimension ref="A2:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="161" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:I34"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1415,14 +1418,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1463,7 +1466,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1487,7 +1490,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
@@ -1506,7 +1509,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
@@ -1525,7 +1528,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
@@ -1544,7 +1547,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
@@ -1563,7 +1566,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1588,7 +1591,7 @@
       <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
@@ -1609,7 +1612,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
@@ -1629,7 +1632,7 @@
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="8" t="s">
         <v>26</v>
       </c>
@@ -1647,7 +1650,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1674,7 +1677,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="7" t="s">
         <v>28</v>
       </c>
@@ -1693,7 +1696,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="7" t="s">
         <v>29</v>
       </c>
@@ -1712,7 +1715,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
@@ -1732,7 +1735,7 @@
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -1758,7 +1761,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="9" t="s">
         <v>32</v>
       </c>
@@ -1776,7 +1779,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="9" t="s">
         <v>33</v>
       </c>
@@ -1794,7 +1797,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="14" t="s">
         <v>34</v>
       </c>
@@ -1812,7 +1815,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -1838,7 +1841,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="7" t="s">
         <v>35</v>
       </c>
@@ -1857,7 +1860,7 @@
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="7" t="s">
         <v>36</v>
       </c>
@@ -1876,7 +1879,7 @@
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="8" t="s">
         <v>37</v>
       </c>
@@ -1900,10 +1903,10 @@
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="5"/>
@@ -1912,17 +1915,17 @@
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="20"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="5"/>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="31" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1952,7 +1955,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -1961,7 +1964,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -1970,7 +1973,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
